--- a/cam/RP2040-PicoProbe-20240107-JLCPCB-CPL-SOIC.xlsx
+++ b/cam/RP2040-PicoProbe-20240107-JLCPCB-CPL-SOIC.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
